--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B7931-A0C9-41E1-A4E7-F792EAC72871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363AEF9D-326D-4E1F-80E7-2CFB32F49B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,15 +61,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"8"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"-7.8164"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2.4856"</t>
+    <t>선택지3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음으로 돌아가요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈출해요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,28 +479,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="1">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363AEF9D-326D-4E1F-80E7-2CFB32F49B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1D690-2F16-4D6F-AFC8-559F50BCF1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="300" windowWidth="16065" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -57,19 +57,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택지를 고르세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처음으로 돌아가요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈출해요!</t>
+    <t>"어떤 타입이 좋아?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"듬직한 연상"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"귀여운 소꿉친구"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"츤데레 연하"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,13 +435,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -479,28 +479,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1D690-2F16-4D6F-AFC8-559F50BCF1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2997F3CC-4DAB-406D-99E2-E3A0DE13219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="300" windowWidth="16065" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,22 @@
   </si>
   <si>
     <t>"츤데레 연하"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"집에가서"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"강의실에 남아서"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥 밥이나 먹으러 가자"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어디가서 과제를 할까?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,13 +159,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -432,20 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E3BB2-0B0D-4131-9B47-FF896B83D6E3}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" customWidth="1"/>
-    <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.69921875" customWidth="1"/>
+    <col min="7" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,6 +521,166 @@
       <c r="I2" s="1">
         <v>68</v>
       </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>120</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2997F3CC-4DAB-406D-99E2-E3A0DE13219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB29332-8EE0-4E31-99E0-833B1900B85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"집에가서"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"강의실에 남아서"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +82,130 @@
   </si>
   <si>
     <t>(어디가서 과제를 할까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"집에 가서"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼 자퇴는 언제쯤 할 생각이야?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아마 이번학기는 듣고 갈거 같아요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"글쎄요..?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"알려주기는 좀 그래서요 ..ㅎㅎ"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"프랑스에 가서 어떤 일을 하고 싶은 거야?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"난 어떤 일 할 거 같아보여?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"가서 어떤일을 할거야?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"난 무슨 일 할 거 같은데?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥.. 저 재밌는 일 하고싶어요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"남을 즐겁게 하는 일을 하고싶어요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"프로그래밍"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기획"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아트"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모두가 즐거운 일"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 즐거운 일"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이번학기는 듣고 갈거야"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"글쎄? 잘 모르겠는데"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"알려주기 좀 그렇다 미안"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"언제쯤 자퇴 하시는거에요?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이번학기는 듣고 갈 거 같아"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"글쎄, 아직 정해진게 없어서"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"미안 아직 알려주기 좀 그렇다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"거기 가서 어떤일 하시는 거에요?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 즐겁고 재밌는 일"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"남이 즐거운 일"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모두를 즐겁게 하는 일"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모두를 즐겁게 하는 일을 하고싶어요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"남을 즐겁게 해주는 일"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"전 어떤 거 하는 거 같아요?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼 언제 할건데?"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +246,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +306,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,16 +610,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E3BB2-0B0D-4131-9B47-FF896B83D6E3}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.69921875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
     <col min="7" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -503,13 +665,13 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1">
@@ -530,21 +692,23 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="3">
         <v>120</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>178</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -554,13 +718,27 @@
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>137</v>
+      </c>
+      <c r="H4" s="3">
+        <v>139</v>
+      </c>
+      <c r="I4" s="3">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -569,13 +747,27 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3">
+        <v>146</v>
+      </c>
+      <c r="H5" s="3">
+        <v>147</v>
+      </c>
+      <c r="I5" s="3">
+        <v>148</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -584,13 +776,27 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3">
+        <v>152</v>
+      </c>
+      <c r="H6" s="3">
+        <v>154</v>
+      </c>
+      <c r="I6" s="3">
+        <v>163</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
@@ -599,11 +805,21 @@
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3">
+        <v>190</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -614,10 +830,18 @@
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -629,10 +853,18 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -644,10 +876,18 @@
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -659,10 +899,18 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -674,13 +922,101 @@
       <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB29332-8EE0-4E31-99E0-833B1900B85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA315D37-2E73-4BBB-B1FC-FC79CE5394D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"가서 어떤일을 할거야?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"난 무슨 일 할 거 같은데?"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +202,10 @@
   </si>
   <si>
     <t>"그럼 언제 할건데?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"가서 어떤 일 할거야?"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,9 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,7 +610,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -709,7 +706,9 @@
       <c r="H3" s="3">
         <v>178</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -751,13 +750,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3">
         <v>146</v>
@@ -780,13 +779,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="3">
         <v>152</v>
@@ -806,22 +805,26 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G7" s="3">
         <v>190</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3">
+        <v>191</v>
+      </c>
+      <c r="I7" s="3">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -831,20 +834,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G8" s="3">
+        <v>199</v>
+      </c>
+      <c r="H8" s="3">
+        <v>201</v>
+      </c>
+      <c r="I8" s="3">
+        <v>203</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
@@ -854,20 +863,26 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="3">
+        <v>209</v>
+      </c>
+      <c r="H9" s="3">
+        <v>210</v>
+      </c>
+      <c r="I9" s="3">
+        <v>213</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
@@ -877,20 +892,26 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="3">
+        <v>236</v>
+      </c>
+      <c r="H10" s="3">
+        <v>237</v>
+      </c>
+      <c r="I10" s="3">
+        <v>239</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
@@ -900,18 +921,20 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>247</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
@@ -923,16 +946,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA315D37-2E73-4BBB-B1FC-FC79CE5394D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B3D48-E4C2-4797-B0B9-C1E8DC727BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,130 @@
   </si>
   <si>
     <t>"가서 어떤 일 할거야?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"놓고간 물건 있어?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너는 나 어떻게 생각해?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오늘 저녁에 시간 가능해?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너는 나 어떻게 생각하는데?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시 여기 종이 못보셨어요?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"제가 알아서 찾을게요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(무시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"항상 잘 챙겨주는 선배"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"착한 선배"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네 가능해요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"시간 보고 말씀 드릴게요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아뇨 안될 거 같아요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시 여기 있던 종이 봤어?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 알아서 찾을게 신경쓰지마"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"소꿉 친구"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"당연하지"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"친한 친구"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"시간 보고 말해줘도 될까?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"놓고간 물건 있어요?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"선배는 저 어떻게 생각해요?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시 여기 종이 떨어진 거 봤어?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오늘 저녁에 시간 있어?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"착한 후배"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오늘 저녁에 시간 있어요?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"잠시만 내가 찾아볼게"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"물론이지"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"시간을 좀 보고.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥 아는 선배"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥 아는 친구"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥 아는 후배"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"챙겨주고 싶은 후배"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +449,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -610,20 +737,20 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.69921875" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
-    <col min="7" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -681,7 +808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -710,7 +837,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -739,7 +866,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -768,7 +895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -797,7 +924,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -826,7 +953,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -855,7 +982,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -884,7 +1011,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -913,7 +1040,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -935,10 +1062,14 @@
       <c r="G11" s="3">
         <v>247</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H11" s="3">
+        <v>248</v>
+      </c>
+      <c r="I11" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -957,83 +1088,224 @@
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G12" s="3">
+        <v>255</v>
+      </c>
+      <c r="H12" s="3">
+        <v>259</v>
+      </c>
+      <c r="I12" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B3D48-E4C2-4797-B0B9-C1E8DC727BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D847471-39AF-417C-AB41-DA814B56B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"놓고간 물건 있어요?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"선배는 저 어떻게 생각해요?"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +326,42 @@
   </si>
   <si>
     <t>"챙겨주고 싶은 후배"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 저번주에 다녀간 곳이 어디가 있지.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"강의실"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사물함 앞 복도"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"집가는 길"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"뭐 찾고 있어?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"뭐 찾고 있어요?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나랑 앞으로도 쭉 함꼐 하겠다고 말해"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아니요, 싫어요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"알겠어요.. 일단 진정 해보세요"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,6 +480,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -734,23 +769,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E3BB2-0B0D-4131-9B47-FF896B83D6E3}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="3" max="3" width="37.69921875" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
-    <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="7" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -779,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -808,7 +843,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -837,7 +872,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -866,7 +901,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -895,7 +930,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -924,7 +959,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -953,7 +988,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1011,7 +1046,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1040,7 +1075,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1069,7 +1104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1098,7 +1133,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1106,22 +1141,26 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>77</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="G13" s="3">
+        <v>286</v>
+      </c>
+      <c r="H13" s="3">
+        <v>326</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1129,22 +1168,28 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3">
+        <v>289</v>
+      </c>
+      <c r="H14" s="3">
+        <v>291</v>
+      </c>
+      <c r="I14" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1152,22 +1197,28 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3">
+        <v>314</v>
+      </c>
+      <c r="H15" s="3">
+        <v>316</v>
+      </c>
+      <c r="I15" s="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1175,22 +1226,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G16" s="3">
+        <v>319</v>
+      </c>
+      <c r="H16" s="3">
+        <v>320</v>
+      </c>
+      <c r="I16" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1198,22 +1255,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1221,96 +1278,124 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="D19" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>70</v>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D847471-39AF-417C-AB41-DA814B56B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD95EAB-81B3-4721-ACB4-BF9EE0841F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"놓고간 물건 있어?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"너는 나 어떻게 생각해?"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"혹시 여기 있던 종이 봤어?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"내가 알아서 찾을게 신경쓰지마"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +354,22 @@
   </si>
   <si>
     <t>"알겠어요.. 일단 진정 해보세요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어떤건데? 같이 찾아줄게"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시 여기 떨어진 종이 봤어?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오늘은 좀 바빠서 안될 거 같아"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"미안 오늘은 좀 바쁘네?"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,12 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,21 +773,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E3BB2-0B0D-4131-9B47-FF896B83D6E3}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.69921875" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
-    <col min="7" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -843,7 +845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -872,7 +874,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -901,7 +903,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -930,7 +932,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -959,7 +961,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -988,7 +990,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1141,16 +1143,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="G13" s="3">
         <v>286</v>
@@ -1158,9 +1160,11 @@
       <c r="H13" s="3">
         <v>326</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I13" s="3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1168,16 +1172,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="G14" s="3">
         <v>289</v>
@@ -1189,7 +1193,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1197,16 +1201,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="3">
         <v>314</v>
@@ -1218,7 +1222,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1226,16 +1230,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G16" s="3">
         <v>319</v>
@@ -1247,7 +1251,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1255,22 +1259,28 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1">
+        <v>329</v>
+      </c>
+      <c r="H17" s="1">
+        <v>330</v>
+      </c>
+      <c r="I17" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1278,22 +1288,28 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1">
+        <v>354</v>
+      </c>
+      <c r="H18" s="1">
+        <v>360</v>
+      </c>
+      <c r="I18" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1301,21 +1317,28 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1">
+        <v>365</v>
+      </c>
+      <c r="H19" s="1">
+        <v>366</v>
+      </c>
+      <c r="I19" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1323,22 +1346,28 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1">
+        <v>374</v>
+      </c>
+      <c r="H20" s="1">
+        <v>376</v>
+      </c>
+      <c r="I20" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1346,22 +1375,28 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1">
+        <v>386</v>
+      </c>
+      <c r="H21" s="1">
+        <v>388</v>
+      </c>
+      <c r="I21" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1369,19 +1404,28 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="G22" s="1">
+        <v>395</v>
+      </c>
+      <c r="H22" s="1">
+        <v>396</v>
+      </c>
+      <c r="I22" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1389,13 +1433,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD95EAB-81B3-4721-ACB4-BF9EE0841F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3614F7-4FC4-4E6A-B212-B0FB9E9E700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -774,7 +774,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -865,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="3">
-        <v>120</v>
+        <v>455</v>
       </c>
       <c r="H3" s="3">
         <v>178</v>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3614F7-4FC4-4E6A-B212-B0FB9E9E700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF134CD7-4D13-48A0-9D38-2058C8C796F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,18 +342,6 @@
   </si>
   <si>
     <t>"뭐 찾고 있어요?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"나랑 앞으로도 쭉 함꼐 하겠다고 말해"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"아니요, 싫어요"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"알겠어요.. 일단 진정 해보세요"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,21 +761,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E3BB2-0B0D-4131-9B47-FF896B83D6E3}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="3" max="3" width="37.69921875" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
-    <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="7" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -816,7 +804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -845,7 +833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -874,7 +862,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -903,7 +891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -932,7 +920,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -961,7 +949,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -990,7 +978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1019,7 +1007,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1048,7 +1036,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1077,7 +1065,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1106,7 +1094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1135,7 +1123,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1164,7 +1152,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1193,7 +1181,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1222,7 +1210,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1251,7 +1239,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1259,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>58</v>
@@ -1280,7 +1268,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1309,7 +1297,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1326,7 +1314,7 @@
         <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1">
         <v>365</v>
@@ -1338,7 +1326,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1367,7 +1355,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1396,7 +1384,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1413,7 +1401,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1">
         <v>395</v>
@@ -1425,22 +1413,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>83</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
